--- a/data/marc/ncrn_bss_fish_monitoring_data_stream_habitat_2022_marc.xlsx
+++ b/data/marc/ncrn_bss_fish_monitoring_data_stream_habitat_2022_marc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/cwainright_nps_gov/Documents/Documents/data_projects/2023/iss156_bss_edd/data/marc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/cwainright_nps_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_38915AF04E19F2C174F8CD9286FECD406D1A7BE5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28E522E0-FDC0-42AD-B3EE-2179798D910B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_38915AF04E19F2C174F8CD9286FECD406D1A7BE5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31770" yWindow="2805" windowWidth="17280" windowHeight="9450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summer Index Data Sheet" sheetId="1" r:id="rId1"/>
@@ -935,7 +935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T16364"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -51338,7 +51338,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -51367,7 +51367,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>44795</v>
+        <v>40412</v>
       </c>
       <c r="C2" t="s">
         <v>91</v>
@@ -51381,7 +51381,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>44795</v>
+        <v>40412</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -52254,8 +52254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -52352,8 +52352,8 @@
       <c r="G2" s="14">
         <v>44769</v>
       </c>
-      <c r="H2" s="1">
-        <v>44733</v>
+      <c r="H2" s="14">
+        <v>8</v>
       </c>
       <c r="I2" s="14">
         <v>44732</v>
@@ -55341,8 +55341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -55375,7 +55375,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>44795</v>
+        <v>40412</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -55392,7 +55392,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>44795</v>
+        <v>40412</v>
       </c>
       <c r="C3">
         <v>4.5</v>
@@ -55409,7 +55409,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>44795</v>
+        <v>40412</v>
       </c>
       <c r="C4">
         <v>7.28</v>
@@ -55426,7 +55426,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>44795</v>
+        <v>40412</v>
       </c>
       <c r="C5">
         <v>7.61</v>
@@ -55443,7 +55443,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>44795</v>
+        <v>40412</v>
       </c>
       <c r="C6">
         <v>8.1199999999999992</v>
@@ -55460,7 +55460,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>44795</v>
+        <v>40412</v>
       </c>
       <c r="C7">
         <v>9.11</v>
@@ -57674,15 +57674,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CDF426C5941C634898DECC69F43B1B84" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ddb6186b385e9e586dbf2c2d396412c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a26c063d-e4ab-4c2c-a5f9-3b05989843c6" xmlns:ns3="31062a0d-ede8-4112-b4bb-00a9c1bc8e16" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="41634503152380488122de28a01d3282" ns2:_="" ns3:_="">
     <xsd:import namespace="a26c063d-e4ab-4c2c-a5f9-3b05989843c6"/>
@@ -57877,15 +57868,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EDE5CB2-6556-4591-931B-07CFBF88A268}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98AB31AC-C2E7-4771-90A7-D1C953293FED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -57902,4 +57894,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EDE5CB2-6556-4591-931B-07CFBF88A268}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>